--- a/数据整理/stocks/港股/00960-龙湖集团.xlsx
+++ b/数据整理/stocks/港股/00960-龙湖集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.44</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.49</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.44</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.49</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007110</t>
+          <t>070012</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银港股通价值发现混合</t>
+          <t>嘉实海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>71.81</t>
+          <t>33.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3549</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010010</t>
+          <t>007110</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银港股通6个月定期开放股票</t>
+          <t>国投瑞银港股通价值发现混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.70</t>
+          <t>22.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>71.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006652</t>
+          <t>010010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国金融地产行业混合A</t>
+          <t>国投瑞银港股通6个月定期开放股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3964</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -678,25 +748,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011124</t>
+          <t>006652</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国金融地产行业混合C</t>
+          <t>富国金融地产行业混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>90.79</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>8.51</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.21</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.54</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.21</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.54</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -762,25 +862,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>070012</t>
+          <t>011124</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实海外中国混合(QDII)</t>
+          <t>富国金融地产行业混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00960-龙湖集团.xlsx
+++ b/数据整理/stocks/港股/00960-龙湖集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1265</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00960-龙湖集团.xlsx
+++ b/数据整理/stocks/港股/00960-龙湖集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9306</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2533</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009108</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009193</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00960-龙湖集团.xlsx
+++ b/数据整理/stocks/港股/00960-龙湖集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1619,4 +1620,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00960-龙湖集团.xlsx
+++ b/数据整理/stocks/港股/00960-龙湖集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8312</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.73</v>
       </c>
     </row>
     <row r="3">
@@ -1675,14 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.93</v>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1691,14 +1756,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.76</v>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1707,13 +1794,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00960-龙湖集团.xlsx
+++ b/数据整理/stocks/港股/00960-龙湖集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2027,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,17 +2039,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2058,14 +2079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.08</v>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3177</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2074,14 +2117,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.73</v>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2090,14 +2155,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.93</v>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2106,14 +2193,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.76</v>
       </c>
     </row>
     <row r="6">
@@ -2122,13 +2231,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00960-龙湖集团.xlsx
+++ b/数据整理/stocks/港股/00960-龙湖集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2464,7 +2465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2475,17 +2476,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2495,14 +2516,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.85</v>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6689</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2511,14 +2554,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6689</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.08</v>
       </c>
     </row>
     <row r="4">
@@ -2527,14 +2592,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.73</v>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5050</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2543,14 +2630,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.93</v>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2238</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2559,14 +2668,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.76</v>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2575,13 +2706,373 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00960-龙湖集团.xlsx
+++ b/数据整理/stocks/港股/00960-龙湖集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>2.7</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.85</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>2.08</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>2.76</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -600,6 +617,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2977</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2529</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1073,7 +1450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1509,7 +1886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1907,7 +2284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2343,7 +2720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2627,7 +3004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2949,7 +3326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00960-龙湖集团.xlsx
+++ b/数据整理/stocks/港股/00960-龙湖集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.82</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>2.7</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.85</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>2.08</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>2.76</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -616,7 +633,687 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0241</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3858</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2655</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2651</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016570</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值丰润混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016571</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实价值丰润混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -976,7 +1673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1450,7 +2147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1886,7 +2583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2284,7 +2981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2720,7 +3417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3004,7 +3701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3324,136 +4021,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006816</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006817</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>